--- a/TestSteps/TestSteps describe.xlsx
+++ b/TestSteps/TestSteps describe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuia/Desktop/AppiumAutotest/TestSteps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43DB172-0701-5F47-B2FF-55AA3E178DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1A31F9-2AF7-6F49-B08A-0B081B26B571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" firstSheet="1" activeTab="10" xr2:uid="{17451AC4-B350-7841-B1A7-70E9EEFFBF30}"/>
   </bookViews>
@@ -2154,8 +2154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267CF906-6932-6B40-98DB-C50CCC2C8902}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="G9" zoomScale="92" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
@@ -2712,7 +2712,7 @@
         <v>6</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="5:15">
@@ -2734,8 +2734,8 @@
       <c r="N27" s="8">
         <v>7</v>
       </c>
-      <c r="O27" s="8" t="s">
-        <v>194</v>
+      <c r="O27" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="5:15">

--- a/TestSteps/TestSteps describe.xlsx
+++ b/TestSteps/TestSteps describe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuia/Desktop/AppiumAutotest/TestSteps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1A31F9-2AF7-6F49-B08A-0B081B26B571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1837E5CB-50B8-F64E-88AE-1F66932A3213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" firstSheet="1" activeTab="10" xr2:uid="{17451AC4-B350-7841-B1A7-70E9EEFFBF30}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" firstSheet="2" activeTab="11" xr2:uid="{17451AC4-B350-7841-B1A7-70E9EEFFBF30}"/>
   </bookViews>
   <sheets>
     <sheet name="vLauncher_Wallpaper" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="STB_stopwatch" sheetId="8" r:id="rId9"/>
     <sheet name="STB_timer" sheetId="9" r:id="rId10"/>
     <sheet name="STB_marker" sheetId="10" r:id="rId11"/>
+    <sheet name="STB_screenshot" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="208">
   <si>
     <t>Steps</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -818,6 +819,50 @@
   </si>
   <si>
     <t>compare location different</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full screen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open Screenshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crop button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full screen button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete Pictures files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count Pictures file to verify file is saved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close saving popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get current app to verify close function</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2154,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267CF906-6932-6B40-98DB-C50CCC2C8902}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G9" zoomScale="92" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView zoomScale="93" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
@@ -2970,6 +3015,324 @@
     <row r="46" spans="6:11">
       <c r="K46" s="2" t="s">
         <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054E4CB2-FD59-494E-944F-8F5E813F3883}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <cols>
+    <col min="1" max="2" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="46.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="2"/>
+    <col min="11" max="11" width="46" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="F8" s="2">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="F9" s="2">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="E12" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="F15" s="2">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="F17" s="2">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="F18" s="2">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="F19" s="2">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="F20" s="2">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="G21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="E23" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="F25" s="2">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="F26" s="2">
+        <v>4</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7">
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7">
+      <c r="F28" s="2">
+        <v>6</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7">
+      <c r="F29" s="2">
+        <v>7</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7">
+      <c r="F30" s="2">
+        <v>8</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/TestSteps/TestSteps describe.xlsx
+++ b/TestSteps/TestSteps describe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuia/Desktop/AppiumAutotest/TestSteps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1837E5CB-50B8-F64E-88AE-1F66932A3213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD58642-E44D-5644-A2D5-76E6C04A6F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" firstSheet="2" activeTab="11" xr2:uid="{17451AC4-B350-7841-B1A7-70E9EEFFBF30}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="4" xr2:uid="{17451AC4-B350-7841-B1A7-70E9EEFFBF30}"/>
   </bookViews>
   <sheets>
     <sheet name="vLauncher_Wallpaper" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="201">
   <si>
     <t>Steps</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,34 +105,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Exit' button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>input '1111' to unlock screenlock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>open  app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input '1234' to test can block error password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clear input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tap 'edit' button</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tap 'cancel' button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tap 'confirm' button</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,14 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tap 'lock' button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input '1111' ,check can't use old password to unlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tap 'reveal' button</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,18 +137,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>input '1234' to check change password success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tap 'remove' button</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tap 'exit' button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>END</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -863,6 +827,14 @@
   </si>
   <si>
     <t>get current app to verify close function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reveal password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tap 'Exit' button</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1342,7 +1314,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1362,26 +1334,24 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="22">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -1391,11 +1361,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="22">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1408,12 +1376,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="22">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1425,12 +1389,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="22">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1442,12 +1402,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="22">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1459,12 +1415,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="22">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1476,12 +1428,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="22">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1493,12 +1441,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="22">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1510,12 +1454,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="22">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1527,12 +1467,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="22">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1544,12 +1480,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="22">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1561,12 +1493,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="22">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1576,12 +1504,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="22">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1589,16 +1513,12 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="22">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -1608,12 +1528,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="22">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1625,12 +1541,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="22">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1642,12 +1554,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="22">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1659,12 +1567,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="22">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1676,12 +1580,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="22">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1689,16 +1589,12 @@
         <v>6</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1710,12 +1606,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="22">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1727,12 +1619,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="22">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1740,14 +1628,12 @@
         <v>9</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="22">
       <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1755,7 +1641,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H24" s="9"/>
     </row>
@@ -1769,7 +1655,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H25" s="9"/>
     </row>
@@ -1783,7 +1669,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H26" s="9"/>
     </row>
@@ -1839,7 +1725,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H30" s="10"/>
     </row>
@@ -1851,7 +1737,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -1896,19 +1782,19 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>1</v>
@@ -1916,59 +1802,59 @@
     </row>
     <row r="2" spans="1:11">
       <c r="B2" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J3" s="2">
         <v>2</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="J4" s="2">
         <v>3</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1976,13 +1862,13 @@
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J5" s="2">
         <v>4</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1990,13 +1876,13 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="J6" s="2">
         <v>5</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2004,13 +1890,13 @@
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="J7" s="2">
         <v>6</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2018,13 +1904,13 @@
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="J8" s="2">
         <v>7</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2032,13 +1918,13 @@
         <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J9" s="2">
         <v>8</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2046,13 +1932,13 @@
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="J10" s="2">
         <v>9</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2060,32 +1946,32 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J11" s="2">
         <v>10</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="E14" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2093,7 +1979,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2101,7 +1987,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="6:7">
@@ -2109,7 +1995,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="6:7">
@@ -2117,7 +2003,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="6:7">
@@ -2125,7 +2011,7 @@
         <v>6</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="6:7">
@@ -2133,7 +2019,7 @@
         <v>7</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="6:7">
@@ -2141,7 +2027,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="6:7">
@@ -2149,7 +2035,7 @@
         <v>9</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="6:7">
@@ -2157,7 +2043,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="6:7">
@@ -2165,7 +2051,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="6:7">
@@ -2173,7 +2059,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="6:7">
@@ -2181,12 +2067,12 @@
         <v>13</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2230,28 +2116,28 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>1</v>
@@ -2259,215 +2145,215 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="J2" s="8">
         <v>1</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="N2" s="8">
         <v>1</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J3" s="8">
         <v>2</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="N3" s="8">
         <v>2</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="B4" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="J4" s="8">
         <v>3</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="N4" s="8">
         <v>3</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="B5" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F5" s="2">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="J5" s="8">
         <v>4</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="N5" s="8">
         <v>4</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="B6" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="J6" s="8">
         <v>5</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="N6" s="8">
         <v>5</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F7" s="2">
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J7" s="8">
         <v>6</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="N7" s="8">
         <v>6</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F8" s="2">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="J8" s="2">
         <v>7</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="N8" s="2">
         <v>7</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F9" s="2">
         <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="J9" s="2">
         <v>8</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="N9" s="2">
         <v>8</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F10" s="2">
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J10" s="2">
         <v>9</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2475,33 +2361,33 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="J11" s="2">
         <v>10</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J12" s="2">
         <v>11</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="N12" s="8">
         <v>1</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2509,36 +2395,36 @@
         <v>12</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="N13" s="8">
         <v>2</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="E14" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J14" s="2">
         <v>13</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="N14" s="8">
         <v>3</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2546,16 +2432,16 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N15" s="8">
         <v>4</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2563,13 +2449,13 @@
         <v>3</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="N16" s="8">
         <v>5</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="5:15">
@@ -2577,22 +2463,22 @@
         <v>4</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="J17" s="8">
         <v>1</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N17" s="8">
         <v>6</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="5:15">
@@ -2600,19 +2486,19 @@
         <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="J18" s="8">
         <v>2</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="N18" s="2">
         <v>7</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="5:15">
@@ -2620,16 +2506,16 @@
         <v>6</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="J19" s="8">
         <v>3</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="5:15">
@@ -2637,13 +2523,13 @@
         <v>7</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J20" s="8">
         <v>4</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="5:15">
@@ -2651,22 +2537,22 @@
         <v>8</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="J21" s="8">
         <v>5</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="N21" s="8">
         <v>1</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="5:15">
@@ -2674,19 +2560,19 @@
         <v>9</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J22" s="8">
         <v>6</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="N22" s="8">
         <v>2</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="5:15">
@@ -2694,19 +2580,19 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J23" s="2">
         <v>7</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="N23" s="8">
         <v>3</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="5:15">
@@ -2714,36 +2600,36 @@
         <v>11</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J24" s="2">
         <v>8</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="N24" s="8">
         <v>4</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="5:15">
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J25" s="2">
         <v>9</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="N25" s="8">
         <v>5</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="5:15">
@@ -2751,36 +2637,36 @@
         <v>10</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N26" s="8">
         <v>6</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="5:15">
       <c r="E27" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F27" s="8">
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="J27" s="2">
         <v>11</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="N27" s="8">
         <v>7</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="5:15">
@@ -2788,19 +2674,19 @@
         <v>2</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="J28" s="2">
         <v>12</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="N28" s="8">
         <v>8</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="5:15">
@@ -2808,19 +2694,19 @@
         <v>3</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="J29" s="2">
         <v>13</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="N29" s="8">
         <v>9</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="5:15">
@@ -2828,19 +2714,19 @@
         <v>4</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="J30" s="2">
         <v>14</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="N30" s="8">
         <v>10</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="5:15">
@@ -2848,19 +2734,19 @@
         <v>5</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="J31" s="2">
         <v>15</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="N31" s="8">
         <v>11</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="5:15">
@@ -2868,13 +2754,13 @@
         <v>6</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="6:11">
@@ -2882,7 +2768,7 @@
         <v>7</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="6:11">
@@ -2890,16 +2776,16 @@
         <v>8</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J34" s="8">
         <v>1</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="6:11">
@@ -2907,13 +2793,13 @@
         <v>9</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="J35" s="8">
         <v>2</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="6:11">
@@ -2921,13 +2807,13 @@
         <v>10</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="J36" s="8">
         <v>3</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="6:11">
@@ -2935,25 +2821,25 @@
         <v>11</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="J37" s="8">
         <v>4</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="6:11">
       <c r="F38" s="8"/>
       <c r="G38" s="8" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="J38" s="8">
         <v>5</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="6:11">
@@ -2961,7 +2847,7 @@
         <v>6</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="6:11">
@@ -2969,7 +2855,7 @@
         <v>7</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="6:11">
@@ -2977,7 +2863,7 @@
         <v>8</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="6:11">
@@ -2985,7 +2871,7 @@
         <v>9</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="6:11">
@@ -2993,7 +2879,7 @@
         <v>10</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="6:11">
@@ -3001,7 +2887,7 @@
         <v>11</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="6:11">
@@ -3009,12 +2895,12 @@
         <v>12</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="6:11">
       <c r="K46" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3027,7 +2913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054E4CB2-FD59-494E-944F-8F5E813F3883}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+    <sheetView zoomScale="86" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -3053,19 +2939,19 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>1</v>
@@ -3073,76 +2959,76 @@
     </row>
     <row r="2" spans="1:11">
       <c r="B2" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J3" s="2">
         <v>2</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="J4" s="2">
         <v>3</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F5" s="2">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J5" s="2">
         <v>4</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3150,13 +3036,13 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="J6" s="2">
         <v>5</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3164,7 +3050,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3172,7 +3058,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3180,23 +3066,23 @@
         <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="E12" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3204,7 +3090,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3212,7 +3098,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3220,7 +3106,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3228,7 +3114,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="5:7">
@@ -3236,7 +3122,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="5:7">
@@ -3244,7 +3130,7 @@
         <v>7</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="5:7">
@@ -3252,7 +3138,7 @@
         <v>8</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="5:7">
@@ -3260,23 +3146,23 @@
         <v>9</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="5:7">
@@ -3284,7 +3170,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="5:7">
@@ -3292,7 +3178,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="5:7">
@@ -3300,7 +3186,7 @@
         <v>4</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="5:7">
@@ -3308,7 +3194,7 @@
         <v>5</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="5:7">
@@ -3316,7 +3202,7 @@
         <v>6</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="5:7">
@@ -3324,7 +3210,7 @@
         <v>7</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="5:7">
@@ -3332,7 +3218,7 @@
         <v>8</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3346,7 +3232,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3367,26 +3253,24 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="22">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -3396,11 +3280,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="22">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>44</v>
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3409,16 +3291,12 @@
         <v>2</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="22">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3426,16 +3304,12 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="22">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3443,16 +3317,12 @@
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3464,12 +3334,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="22">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3477,16 +3343,12 @@
         <v>6</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="22">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3494,16 +3356,12 @@
         <v>7</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="22">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3511,31 +3369,23 @@
         <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="22">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="22">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -3543,31 +3393,23 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="22">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="22">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="6"/>
       <c r="F13" s="2">
         <v>2</v>
       </c>
@@ -3576,57 +3418,43 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="22">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="6"/>
       <c r="F14" s="2">
         <v>3</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="22">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="F15" s="2">
         <v>4</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="22">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
       <c r="F16" s="2">
         <v>5</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="22">
       <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="B17" s="2"/>
       <c r="F17" s="2">
         <v>6</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="22">
@@ -3634,13 +3462,13 @@
         <v>7</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="22">
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="22">
@@ -3663,10 +3491,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F325A5-A711-8349-B968-6B865ABD610A}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3686,211 +3514,151 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="22">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>58</v>
+      <c r="A2" s="7"/>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="22">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>60</v>
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="22">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="F4" s="2">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="22">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="7"/>
       <c r="F5" s="2">
         <v>4</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="F6" s="2">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="22">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="F7" s="2">
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="22">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="F8" s="2">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="22">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="F9" s="2">
         <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="22">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="2">
-        <v>9</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="22">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="2">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="22">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="2">
-        <v>11</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>63</v>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="E12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="22">
       <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>32</v>
+      <c r="B13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8">
+        <v>2</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="22">
-      <c r="F14" s="2"/>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="22">
-      <c r="E15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
       <c r="G15" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="22">
-      <c r="E16" s="7"/>
-      <c r="F16" s="8">
-        <v>2</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" ht="22">
-      <c r="F17" s="8">
-        <v>3</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3901,14 +3669,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732DBFCA-7743-5B42-A964-5804F26305C2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3916,10 +3707,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1E3124-FA28-6A4B-854D-651EBA37B2FB}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3939,26 +3730,24 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="22">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -3968,11 +3757,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="22">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3985,11 +3772,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="22">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
+      <c r="A4" s="2"/>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -4002,11 +3787,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="22">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
+      <c r="A5" s="2"/>
+      <c r="B5" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4019,29 +3802,21 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="22">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>10</v>
+      <c r="G6" s="5" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="22">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -4049,453 +3824,347 @@
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="22">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>32</v>
+      <c r="F8" s="2">
+        <v>7</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="22">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
+      <c r="F9" s="2">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="22">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="22">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="12" spans="1:9" ht="22">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="22">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
-        <v>4</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="22">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
-        <v>5</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="22">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="22">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
-        <v>7</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="22">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="22">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="22">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="22">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
-        <v>11</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="22">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="22">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>32</v>
+      <c r="F22" s="2">
+        <v>11</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="22">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="F23" s="2">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="22">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="22">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2">
-        <v>2</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="22">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="F26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="22">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2">
-        <v>4</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="22">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2">
-        <v>5</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="22">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="22">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2">
-        <v>7</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="22">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="22">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2">
+        <v>7</v>
+      </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="22">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="F33" s="2">
+        <v>8</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="22">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="22">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -4503,30 +4172,63 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" ht="22">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="E36" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="22">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="F37" s="2">
+        <v>2</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="22">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2">
+        <v>3</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="22">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2">
+        <v>24</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="22">
+      <c r="F40" s="2">
+        <v>25</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="22">
+      <c r="G41" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4566,19 +4268,19 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>1</v>
@@ -4586,152 +4288,152 @@
     </row>
     <row r="2" spans="1:11">
       <c r="B2" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J5" s="2">
         <v>2</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="B6" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J6" s="2">
         <v>3</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="J7" s="2">
         <v>4</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F8" s="2">
         <v>6</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J8" s="2">
         <v>5</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="B9" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J9" s="2">
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="K10" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="E11" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4739,13 +4441,13 @@
         <v>2</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4753,13 +4455,13 @@
         <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4767,13 +4469,13 @@
         <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J14" s="2">
         <v>2</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -4781,13 +4483,13 @@
         <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="J15" s="2">
         <v>3</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -4795,13 +4497,13 @@
         <v>6</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="J16" s="2">
         <v>4</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="5:11">
@@ -4809,24 +4511,24 @@
         <v>7</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J17" s="2">
         <v>5</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="5:11">
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J18" s="2">
         <v>6</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="5:11">
@@ -4834,12 +4536,12 @@
         <v>7</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="5:11">
       <c r="E20" s="12" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -4847,24 +4549,24 @@
         <v>8</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="5:11">
       <c r="E21" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="J21" s="2">
         <v>9</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="5:11">
@@ -4872,13 +4574,13 @@
         <v>2</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J22" s="2">
         <v>10</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="5:11">
@@ -4886,13 +4588,13 @@
         <v>3</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J23" s="2">
         <v>11</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="5:11">
@@ -4900,13 +4602,13 @@
         <v>4</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J24" s="2">
         <v>12</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="5:11">
@@ -4914,13 +4616,13 @@
         <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J25" s="2">
         <v>13</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="5:11">
@@ -4928,13 +4630,13 @@
         <v>6</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J26" s="2">
         <v>14</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="5:11">
@@ -4942,24 +4644,24 @@
         <v>7</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J27" s="2">
         <v>15</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="5:11">
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J28" s="2">
         <v>16</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="5:11">
@@ -4967,21 +4669,21 @@
         <v>17</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="5:11">
       <c r="E30" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J30" s="2">
         <v>18</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="5:11">
@@ -4989,13 +4691,13 @@
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J31" s="2">
         <v>19</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="5:11">
@@ -5003,13 +4705,13 @@
         <v>2</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J32" s="2">
         <v>20</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="5:11">
@@ -5017,10 +4719,10 @@
         <v>3</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="5:11">
@@ -5028,7 +4730,7 @@
         <v>4</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="5:11">
@@ -5036,7 +4738,7 @@
         <v>5</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="5:11">
@@ -5044,7 +4746,7 @@
         <v>6</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="5:11">
@@ -5052,15 +4754,15 @@
         <v>7</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="5:11">
       <c r="E40" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="5:11">
@@ -5068,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="5:11">
@@ -5076,7 +4778,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="5:11">
@@ -5084,7 +4786,7 @@
         <v>3</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="5:11">
@@ -5092,7 +4794,7 @@
         <v>4</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="5:11">
@@ -5100,7 +4802,7 @@
         <v>5</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="5:11">
@@ -5108,7 +4810,7 @@
         <v>6</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="5:11">
@@ -5116,7 +4818,7 @@
         <v>7</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="5:11">
@@ -5124,7 +4826,7 @@
         <v>8</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="6:7">
@@ -5132,7 +4834,7 @@
         <v>9</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="6:7">
@@ -5140,7 +4842,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="6:7">
@@ -5148,7 +4850,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="6:7">
@@ -5156,7 +4858,7 @@
         <v>12</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="6:7">
@@ -5164,7 +4866,7 @@
         <v>13</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="6:7">
@@ -5172,7 +4874,7 @@
         <v>14</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="6:7">
@@ -5180,7 +4882,7 @@
         <v>15</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="6:7">
@@ -5188,7 +4890,7 @@
         <v>16</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="6:7">
@@ -5196,7 +4898,7 @@
         <v>17</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="6:7">
@@ -5204,7 +4906,7 @@
         <v>18</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="6:7">
@@ -5212,7 +4914,7 @@
         <v>19</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="6:7">
@@ -5220,7 +4922,7 @@
         <v>20</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="6:7">
@@ -5228,7 +4930,7 @@
         <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -5268,19 +4970,19 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>1</v>
@@ -5288,93 +4990,93 @@
     </row>
     <row r="2" spans="1:11">
       <c r="B2" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="J3" s="2">
         <v>2</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J4" s="2">
         <v>3</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F5" s="2">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J5" s="2">
         <v>4</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="B6" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J6" s="2">
         <v>5</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5382,13 +5084,13 @@
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J7" s="2">
         <v>6</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5396,13 +5098,13 @@
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J8" s="2">
         <v>7</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5410,13 +5112,13 @@
         <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J9" s="2">
         <v>8</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5424,13 +5126,13 @@
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J10" s="2">
         <v>9</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5438,10 +5140,10 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5449,21 +5151,21 @@
         <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="G13" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5471,24 +5173,24 @@
         <v>2</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="E15" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J15" s="2">
         <v>3</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5496,13 +5198,13 @@
         <v>2</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="J16" s="2">
         <v>4</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="5:11">
@@ -5510,13 +5212,13 @@
         <v>3</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J17" s="2">
         <v>5</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="5:11">
@@ -5524,13 +5226,13 @@
         <v>4</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J18" s="2">
         <v>6</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="5:11">
@@ -5538,13 +5240,13 @@
         <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J19" s="2">
         <v>7</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="5:11">
@@ -5552,13 +5254,13 @@
         <v>6</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J20" s="2">
         <v>8</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="5:11">
@@ -5566,13 +5268,13 @@
         <v>7</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J21" s="2">
         <v>9</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="5:11">
@@ -5580,10 +5282,10 @@
         <v>8</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="5:11">
@@ -5591,7 +5293,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="5:11">
@@ -5599,7 +5301,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="5:11">
@@ -5607,23 +5309,23 @@
         <v>11</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="5:11">
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="5:11">
       <c r="E28" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="5:11">
@@ -5631,7 +5333,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="5:11">
@@ -5639,7 +5341,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="5:11">
@@ -5647,7 +5349,7 @@
         <v>4</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="5:11">
@@ -5655,7 +5357,7 @@
         <v>5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="6:7">
@@ -5663,7 +5365,7 @@
         <v>6</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="6:7">
@@ -5671,7 +5373,7 @@
         <v>7</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="6:7">
@@ -5679,7 +5381,7 @@
         <v>8</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="6:7">
@@ -5687,12 +5389,12 @@
         <v>9</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -5705,8 +5407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D70AA2A-3BF3-014E-8820-FA500EDCC4CC}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
@@ -5732,19 +5434,19 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>1</v>
@@ -5752,70 +5454,70 @@
     </row>
     <row r="2" spans="1:11">
       <c r="B2" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J3" s="2">
         <v>2</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="J4" s="2">
         <v>3</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5823,13 +5525,13 @@
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="J6" s="2">
         <v>4</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5837,13 +5539,13 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J7" s="2">
         <v>5</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5851,13 +5553,13 @@
         <v>6</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="J8" s="2">
         <v>6</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5865,13 +5567,13 @@
         <v>7</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J9" s="2">
         <v>7</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5879,13 +5581,13 @@
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J10" s="2">
         <v>8</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5893,26 +5595,26 @@
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="E14" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5920,7 +5622,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5928,12 +5630,12 @@
         <v>3</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="G17" s="13" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="5:7">
@@ -5941,7 +5643,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="5:7">
@@ -5949,7 +5651,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="5:7">
@@ -5957,7 +5659,7 @@
         <v>6</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="5:7">
@@ -5965,7 +5667,7 @@
         <v>7</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="5:7">
@@ -5973,7 +5675,7 @@
         <v>8</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="5:7">
@@ -5981,23 +5683,23 @@
         <v>9</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="5:7">
@@ -6005,7 +5707,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="5:7">
@@ -6013,12 +5715,12 @@
         <v>3</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="G29" s="13" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="5:7">
@@ -6026,7 +5728,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="5:7">
@@ -6034,7 +5736,7 @@
         <v>5</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="5:7">
@@ -6042,7 +5744,7 @@
         <v>6</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="6:7">
@@ -6050,7 +5752,7 @@
         <v>7</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="6:7">
@@ -6058,7 +5760,7 @@
         <v>8</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="6:7">
@@ -6066,12 +5768,12 @@
         <v>9</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -6111,19 +5813,19 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>1</v>
@@ -6131,93 +5833,93 @@
     </row>
     <row r="2" spans="1:11">
       <c r="B2" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J3" s="2">
         <v>2</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J4" s="2">
         <v>3</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F5" s="2">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J5" s="2">
         <v>4</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="B6" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="J6" s="2">
         <v>5</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6225,13 +5927,13 @@
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="J7" s="2">
         <v>6</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6239,13 +5941,13 @@
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J8" s="2">
         <v>7</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6253,13 +5955,13 @@
         <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J9" s="2">
         <v>8</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6267,24 +5969,24 @@
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J10" s="2">
         <v>9</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="G11" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J11" s="2">
         <v>10</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6292,24 +5994,24 @@
         <v>11</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="E13" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J13" s="2">
         <v>12</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6317,13 +6019,13 @@
         <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J14" s="2">
         <v>13</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6331,13 +6033,13 @@
         <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J15" s="2">
         <v>14</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6345,10 +6047,10 @@
         <v>4</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="5:11">
@@ -6356,7 +6058,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="5:11">
@@ -6364,16 +6066,16 @@
         <v>6</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="5:11">
@@ -6381,24 +6083,24 @@
         <v>7</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J19" s="2">
         <v>2</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="5:11">
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J20" s="2">
         <v>3</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="5:11">
@@ -6406,24 +6108,24 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="5:11">
       <c r="E22" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J22" s="2">
         <v>5</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="5:11">
@@ -6431,13 +6133,13 @@
         <v>2</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J23" s="2">
         <v>6</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="5:11">
@@ -6445,13 +6147,13 @@
         <v>3</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J24" s="2">
         <v>7</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="5:11">
@@ -6459,13 +6161,13 @@
         <v>4</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J25" s="2">
         <v>8</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="5:11">
@@ -6473,10 +6175,10 @@
         <v>5</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="5:11">
@@ -6484,7 +6186,7 @@
         <v>6</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="5:11">
@@ -6492,7 +6194,7 @@
         <v>7</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="5:11">
@@ -6500,7 +6202,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="5:11">
@@ -6508,12 +6210,12 @@
         <v>9</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="5:11">
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/TestSteps/TestSteps describe.xlsx
+++ b/TestSteps/TestSteps describe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuia/Desktop/AppiumAutotest/TestSteps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD58642-E44D-5644-A2D5-76E6C04A6F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6685AB2A-452C-694B-AA62-6F3805560812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="4" xr2:uid="{17451AC4-B350-7841-B1A7-70E9EEFFBF30}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{17451AC4-B350-7841-B1A7-70E9EEFFBF30}"/>
   </bookViews>
   <sheets>
     <sheet name="vLauncher_Wallpaper" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="201">
   <si>
     <t>Steps</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1313,7 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676EA4B8-998D-1542-982E-CCBA629695EF}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -3707,20 +3707,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1E3124-FA28-6A4B-854D-651EBA37B2FB}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="61.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22">
+    <row r="1" spans="1:11" ht="22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3738,8 +3741,17 @@
       <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="22">
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="22">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>26</v>
@@ -3755,8 +3767,17 @@
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="22">
+      <c r="I2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="22">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>27</v>
@@ -3770,8 +3791,15 @@
       <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="22">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="22">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
         <v>29</v>
@@ -3785,8 +3813,15 @@
       <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="22">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="22">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
         <v>199</v>
@@ -3800,8 +3835,15 @@
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="22">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="22">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3813,8 +3855,14 @@
       <c r="G6" s="5" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="22">
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="22">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3826,8 +3874,11 @@
       <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="22">
+      <c r="K7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="22">
       <c r="A8" s="2"/>
       <c r="B8" s="5"/>
       <c r="C8" s="2"/>
@@ -3840,7 +3891,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="22">
+    <row r="9" spans="1:11" ht="22">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3852,7 +3903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="22">
+    <row r="10" spans="1:11" ht="22">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3861,13 +3912,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="22">
+    <row r="11" spans="1:11" ht="22">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="22">
+    <row r="12" spans="1:11" ht="22">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3882,7 +3933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="22">
+    <row r="13" spans="1:11" ht="22">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3895,7 +3946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="22">
+    <row r="14" spans="1:11" ht="22">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3908,7 +3959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="22">
+    <row r="15" spans="1:11" ht="22">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3921,7 +3972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="22">
+    <row r="16" spans="1:11" ht="22">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4176,59 +4227,12 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="37" spans="1:7" ht="22">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2">
-        <v>2</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="22">
-      <c r="E38" s="2"/>
-      <c r="F38" s="2">
-        <v>3</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="22">
-      <c r="E39" s="2"/>
-      <c r="F39" s="2">
-        <v>24</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="22">
-      <c r="F40" s="2">
-        <v>25</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="22">
-      <c r="G41" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
